--- a/Altium/Artemis_Plus.PrjPcb/Project Outputs for Artemis_Plus/BOM/Artemis_Plus-BOM.xlsx
+++ b/Altium/Artemis_Plus.PrjPcb/Project Outputs for Artemis_Plus/BOM/Artemis_Plus-BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="147">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -133,10 +133,10 @@
     <t>C</t>
   </si>
   <si>
-    <t>11/1/2023</t>
-  </si>
-  <si>
-    <t>3:28 PM</t>
+    <t>11/5/2023</t>
+  </si>
+  <si>
+    <t>10:16 PM</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -238,7 +238,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>AMBIQ-APOLLO3-PLUS</t>
+    <t>AMBIQ-APOLLO3-BLUE-PLUS</t>
   </si>
   <si>
     <t>32MHz</t>
@@ -295,19 +295,28 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>ANT-2.4GHZ-8.0X1.0MM</t>
+    <t>0402-TIGHT-C</t>
   </si>
   <si>
     <t>0402-TIGHT</t>
   </si>
   <si>
-    <t>0805-WIDE</t>
-  </si>
-  <si>
-    <t>BGA-104-5.3X4.3MM - Sprite-mixed-0.2-0.19</t>
-  </si>
-  <si>
-    <t>CRYSTAL-SMD-2.0X1.6MM</t>
+    <t>DFE201610E-2R2MP2</t>
+  </si>
+  <si>
+    <t>LQM21PN1R0MEHD</t>
+  </si>
+  <si>
+    <t>0402-TIGHT-L</t>
+  </si>
+  <si>
+    <t>0402-TIGHT-R</t>
+  </si>
+  <si>
+    <t>BGA-104-5.3X4.3MM - Sprite-mixed-0.2-0.19 - 3DModel</t>
+  </si>
+  <si>
+    <t>ECS-320-6-37B2-CKM-TR</t>
   </si>
   <si>
     <t>Manufacturer 1</t>
@@ -361,9 +370,6 @@
     <t>DFE201610E-2R2M=P2</t>
   </si>
   <si>
-    <t>LQM21PN1R0MEHD</t>
-  </si>
-  <si>
     <t>LQG15WZ2N7S02D</t>
   </si>
   <si>
@@ -376,9 +382,6 @@
     <t>AMA3B2KK-KBR</t>
   </si>
   <si>
-    <t>ECS-320-6-37B2-CKM-TR</t>
-  </si>
-  <si>
     <t>Supplier 1</t>
   </si>
   <si>
@@ -442,7 +445,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>11/1/2023 3:28 PM</t>
+    <t>11/5/2023 10:16 PM</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -1665,11 +1668,11 @@
       <c r="D9" s="26"/>
       <c r="E9" s="30">
         <f ca="1">TODAY()</f>
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="F9" s="31">
         <f ca="1">NOW()</f>
-        <v>45231.64472488426</v>
+        <v>45235.928535879626</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
@@ -1699,16 +1702,16 @@
         <v>90</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L10" s="14"/>
     </row>
@@ -1731,19 +1734,19 @@
         <v>75</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I11" s="49" t="s">
         <v>58</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L11" s="14"/>
     </row>
@@ -1766,19 +1769,19 @@
         <v>76</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L12" s="14"/>
     </row>
@@ -1801,19 +1804,19 @@
         <v>77</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" s="14"/>
     </row>
@@ -1836,19 +1839,19 @@
         <v>78</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" s="14"/>
     </row>
@@ -1871,19 +1874,19 @@
         <v>79</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J15" s="49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L15" s="14"/>
     </row>
@@ -1906,19 +1909,19 @@
         <v>80</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L16" s="14"/>
     </row>
@@ -1941,19 +1944,19 @@
         <v>81</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J17" s="49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K17" s="54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L17" s="14"/>
     </row>
@@ -2003,19 +2006,19 @@
         <v>82</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J19" s="49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="14"/>
     </row>
@@ -2041,16 +2044,16 @@
         <v>93</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J20" s="50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K20" s="56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L20" s="14"/>
     </row>
@@ -2073,19 +2076,19 @@
         <v>84</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H21" s="53" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="J21" s="49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L21" s="14"/>
     </row>
@@ -2108,19 +2111,19 @@
         <v>85</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L22" s="14"/>
     </row>
@@ -2143,19 +2146,19 @@
         <v>86</v>
       </c>
       <c r="G23" s="53" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J23" s="49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L23" s="14"/>
     </row>
@@ -2178,19 +2181,19 @@
         <v>87</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24" s="56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L24" s="14"/>
     </row>
@@ -2213,19 +2216,19 @@
         <v>88</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H25" s="53" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J25" s="49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L25" s="14"/>
     </row>
@@ -2248,19 +2251,19 @@
         <v>89</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H26" s="55" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L26" s="14"/>
     </row>
@@ -2370,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2402,7 +2405,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2410,7 +2413,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2418,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2442,7 +2445,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2450,7 +2453,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2458,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2466,7 +2469,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2474,7 +2477,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2482,7 +2485,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2490,7 +2493,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
